--- a/01_Exceltabellen/01_Übersichten/01_Container_Übersicht_201905191.xlsx
+++ b/01_Exceltabellen/01_Übersichten/01_Container_Übersicht_201905191.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC1791B-494F-4A17-9D76-BE1D008DB002}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C487E20-AB7B-4941-AB35-4178DCD670AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Container</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Stammbaum</t>
+  </si>
+  <si>
+    <t>vorhanden (tabellen + 2x apex)</t>
+  </si>
+  <si>
+    <t>Container 8</t>
   </si>
 </sst>
 </file>
@@ -99,12 +105,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,15 +476,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D88912-2D58-4576-B120-A15DF51E0572}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -510,19 +530,19 @@
       <c r="C2">
         <v>9090</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -530,6 +550,18 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>1522</v>
+      </c>
+      <c r="C3">
+        <v>8088</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -649,6 +681,29 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1529</v>
+      </c>
+      <c r="C9">
+        <v>8093</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
     </row>
